--- a/tests/data/Nepse Alpha Stock Market Dashboard.xlsx
+++ b/tests/data/Nepse Alpha Stock Market Dashboard.xlsx
@@ -488,32 +488,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2894.57</t>
+          <t>2609.58</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,974.06 Cr</t>
+          <t>547.49 Cr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>55.87</t>
+          <t>47.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.68 %</t>
+          <t>1.61 %</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>66.14</t>
+          <t>40.62</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -535,42 +535,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1655.43</t>
+          <t>1415.43</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>242.51 Cr</t>
+          <t>72.13 Cr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>17.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.50 %</t>
+          <t>2.27 %</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>68.34</t>
+          <t>43.58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15.59 %</t>
+          <t>11.38 %</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.94</t>
         </is>
       </c>
     </row>
@@ -582,42 +582,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3939.18</t>
+          <t>4669.82</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.07 Cr</t>
+          <t>1.87 Cr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34.84</t>
+          <t>44.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.23 %</t>
+          <t>0.27 %</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>57.13</t>
+          <t>56.24</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.45 %</t>
+          <t>40.46 %</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.09</t>
         </is>
       </c>
     </row>
@@ -629,42 +629,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7249.86</t>
+          <t>6387.9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>38.67 Cr</t>
+          <t>5.80 Cr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.35</t>
+          <t>72.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.64 %</t>
+          <t>0.75 %</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>55.96</t>
+          <t>37.73</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11.07 %</t>
+          <t>-8.66 %</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.21</t>
         </is>
       </c>
     </row>
@@ -676,42 +676,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5784.99</t>
+          <t>5223.76</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>231.67 Cr</t>
+          <t>47.29 Cr</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>48.77</t>
+          <t>39.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.09 %</t>
+          <t>1.16 %</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>66.01</t>
+          <t>35.65</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>33.15 %</t>
+          <t>4.73 %</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -723,42 +723,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3547.89</t>
+          <t>3434.32</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>539.68 Cr</t>
+          <t>169.52 Cr</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>115.46</t>
+          <t>83.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.06 %</t>
+          <t>1.17 %</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>60.34</t>
+          <t>45.22</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-1.32 %</t>
+          <t>26.62 %</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.33</t>
         </is>
       </c>
     </row>
@@ -770,42 +770,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3836.16</t>
+          <t>2935.78</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>221.69 Cr</t>
+          <t>68.99 Cr</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>114.03</t>
+          <t>64.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.70 %</t>
+          <t>0.56 %</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>65.77</t>
+          <t>30.63</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>151.54 %</t>
+          <t>19.24 %</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.78</t>
         </is>
       </c>
     </row>
@@ -817,42 +817,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13832.35</t>
+          <t>12444.23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>70.26 Cr</t>
+          <t>22.88 Cr</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>36.95</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.79 %</t>
+          <t>0.89 %</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>61.46</t>
+          <t>33.65</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-7.16 %</t>
+          <t>-10.38 %</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.79</t>
         </is>
       </c>
     </row>
@@ -864,42 +864,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7587.48</t>
+          <t>6762.54</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>70.20 Cr</t>
+          <t>17.81 Cr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>40.45</t>
+          <t>48.91</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.15 %</t>
+          <t>0.91 %</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>48.04</t>
+          <t>45.38</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-13.29 %</t>
+          <t>-20.06 %</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.89</t>
         </is>
       </c>
     </row>
@@ -911,42 +911,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2195.4</t>
+          <t>1946.37</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>104.37 Cr</t>
+          <t>10.80 Cr</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>81.22</t>
+          <t>70.86</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.70 %</t>
+          <t>0.80 %</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>57.41</t>
+          <t>38.39</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-5.51 %</t>
+          <t>-9.24 %</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.22</t>
         </is>
       </c>
     </row>
@@ -958,42 +958,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5430.62</t>
+          <t>4977.97</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>187.33 Cr</t>
+          <t>79.90 Cr</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>70.55</t>
+          <t>61.34</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.95 %</t>
+          <t>0.84 %</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>59.59</t>
+          <t>50.72</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>103.60 %</t>
+          <t>-9.42 %</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.94</t>
         </is>
       </c>
     </row>
@@ -1005,42 +1005,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14360.64</t>
+          <t>12444.33</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>117.13 Cr</t>
+          <t>15.69 Cr</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>74.53</t>
+          <t>62.85</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.87 %</t>
+          <t>2.10 %</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>67.93</t>
+          <t>35.89</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-22.14 %</t>
+          <t>-9.37 %</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.97</t>
         </is>
       </c>
     </row>
@@ -1052,42 +1052,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>116.15</t>
+          <t>98.75</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>117.46 Cr</t>
+          <t>30.22 Cr</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>110.69</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.74 %</t>
+          <t>0.63 %</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>65.79</t>
+          <t>34.23</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15.41 %</t>
+          <t>14.99 %</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.19</t>
         </is>
       </c>
     </row>
